--- a/Week_22_Marvel_Movies/Marvel-Movies.xlsx
+++ b/Week_22_Marvel_Movies/Marvel-Movies.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpurt\OneDrive\Programming\Plotly_FF_2025\Week_22_Marvel_Movies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acb440cf5b4acec9/Programming/Plotly_FF_2025/Week_22_Marvel_Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{634CA48E-57AE-4A33-A6F2-0CDA481B5C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{634CA48E-57AE-4A33-A6F2-0CDA481B5C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7B3C37E-9D23-41C7-98E0-F7978737EBF1}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3555" windowWidth="34005" windowHeight="11295" xr2:uid="{D54F60C7-F699-4D3F-B4CA-65D41FFAEB7C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{D54F60C7-F699-4D3F-B4CA-65D41FFAEB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvel-Movies" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Marvel-Movies'!$A$1:$Q$36</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1155,7 +1158,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,6 +3076,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q36" xr:uid="{9F053B5B-678F-4813-8FE7-A3DB40B6E7C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>